--- a/worldmap/commodity-code-name-lookup.xlsx
+++ b/worldmap/commodity-code-name-lookup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Unspecified goods</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1816,6 +1819,28 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0b3d0c8f-296c-473c-bd4d-16661331c73d">YUQZ6C5JNMTS-1671186884-45</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0b3d0c8f-296c-473c-bd4d-16661331c73d">
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/MSDUKT/_layouts/DocIdRedir.aspx?ID=YUQZ6C5JNMTS-1671186884-45</Url>
+      <Description>YUQZ6C5JNMTS-1671186884-45</Description>
+    </_dlc_DocIdUrl>
+    <_dlc_DocIdPersistId xmlns="0b3d0c8f-296c-473c-bd4d-16661331c73d">false</_dlc_DocIdPersistId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011442839F28E6440953E4D9F710780C9" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7b8b49f59578182ca4f54e0eb2aa6ad1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b3d0c8f-296c-473c-bd4d-16661331c73d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4afa023870436197f696160caecdd116" ns2:_="">
     <xsd:import namespace="0b3d0c8f-296c-473c-bd4d-16661331c73d"/>
@@ -1960,28 +1985,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0b3d0c8f-296c-473c-bd4d-16661331c73d">YUQZ6C5JNMTS-1671186884-45</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0b3d0c8f-296c-473c-bd4d-16661331c73d">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/MSDUKT/_layouts/DocIdRedir.aspx?ID=YUQZ6C5JNMTS-1671186884-45</Url>
-      <Description>YUQZ6C5JNMTS-1671186884-45</Description>
-    </_dlc_DocIdUrl>
-    <_dlc_DocIdPersistId xmlns="0b3d0c8f-296c-473c-bd4d-16661331c73d">false</_dlc_DocIdPersistId>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93FE33A3-7F01-4A97-A85F-6EBEC2A0FA7F}">
   <ds:schemaRefs>
@@ -1991,19 +1994,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B36C3E-D51D-4058-BB56-C3EC369B2DD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AD6754F-9839-4D25-8615-F65716441E66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0b3d0c8f-296c-473c-bd4d-16661331c73d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2025,9 +2018,19 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AD6754F-9839-4D25-8615-F65716441E66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B36C3E-D51D-4058-BB56-C3EC369B2DD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0b3d0c8f-296c-473c-bd4d-16661331c73d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>